--- a/biology/Botanique/Bois_puant/Bois_puant.xlsx
+++ b/biology/Botanique/Bois_puant/Bois_puant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Foetidia mauritiana
 Foetidia mauritiana, communément appelé Bois puant, est une espèce de plantes à fleurs du genre Foetidia de la famille des Lecythidaceae, endémique des Mascareignes. À La Réunion, c'est une espèce protégée par arrêté ministériel du 8 février 1987.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bois puant est appelé ainsi car ses parties contiennent une huile résineuse malodorante, surtout quand il est sec et scié. Son odeur fétide repousse les insectes.
 Son stipe droit peut atteindre 15 à 20 mètres de hauteur[réf. nécessaire]. Son écorce est grise et rugueuse. Ses feuilles sont rugueuses, simples, entières, alternes, d'un vert brillant. Les feuilles les plus jeunes sont étroites avec une nervure rouge au milieu.
@@ -545,7 +559,9 @@
           <t>Usage et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois puant était utilisé pour la construction, étant imputrescible. Il est devenu rare à la Réunion, son environnement naturel se trouve dans la forêt sèche. On peut observer des exemplaires au jardin botanique de Pamplemousses à Maurice et au conservatoire botanique national de Mascarin à La Réunion.
 </t>
@@ -576,9 +592,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (14 juillet 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (14 juillet 2014) :
 variété Foetidia mauritiana var. elongata R. Knuth</t>
         </is>
       </c>
